--- a/01_Input/03_ClassificationPrediction_DataPreparation.xlsx
+++ b/01_Input/03_ClassificationPrediction_DataPreparation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Branches\WEFN\01_RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Branches\WEFN\01_Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A15B6-CC68-46E8-91B8-5B873A0FE0AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB2E8A5-5B29-4B00-99AB-7EA4D556A0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>Year</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>Population</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -179,6 +175,10 @@
   </si>
   <si>
     <t>Active Working Population in Agriculture Percentage (%)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -1203,32 +1203,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1236,25 +1236,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
@@ -1263,15 +1263,15 @@
         <v>6</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="6">
         <f>(C2+D2)/E2</f>
@@ -1332,17 +1332,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78054FFB-0FC1-404F-8536-4A80A54A69F6}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1350,192 +1350,192 @@
         <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2">
         <v>2018</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
         <v>2018</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4">
-        <v>2018</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>2018</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
         <v>2018</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
         <v>2018</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>2018</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
         <v>2018</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
         <v>2018</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>2018</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13">
+        <v>38</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
         <v>2018</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{89899B48-9EBE-43BA-BBB0-4EA2A0DC4C00}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{AF3410B5-0F5A-4F0D-95B1-4983DFE03191}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{89D4D2B0-359C-482F-8057-903166B93C86}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{7CAA7FFF-1DFA-4CF3-94C4-BA53C4BE0500}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{2509CFF0-2E1F-4603-842E-4BE87DB588DE}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{B847A30A-23FB-4CBC-AAA2-07C1BD7A84B3}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{15EAC638-7CDD-451A-8D9F-2EACD6DDC8D6}"/>
-    <hyperlink ref="D12" r:id="rId8" xr:uid="{CDA20D0B-940C-4681-A351-88CD3170CD91}"/>
-    <hyperlink ref="D13" r:id="rId9" xr:uid="{95BEE6D3-CA39-4516-9C31-F1B509C5A35C}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{89899B48-9EBE-43BA-BBB0-4EA2A0DC4C00}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{AF3410B5-0F5A-4F0D-95B1-4983DFE03191}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{89D4D2B0-359C-482F-8057-903166B93C86}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{7CAA7FFF-1DFA-4CF3-94C4-BA53C4BE0500}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{2509CFF0-2E1F-4603-842E-4BE87DB588DE}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{B847A30A-23FB-4CBC-AAA2-07C1BD7A84B3}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{15EAC638-7CDD-451A-8D9F-2EACD6DDC8D6}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{CDA20D0B-940C-4681-A351-88CD3170CD91}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{95BEE6D3-CA39-4516-9C31-F1B509C5A35C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
